--- a/data/DataSeating2024.xlsx
+++ b/data/DataSeating2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eleon\OneDrive\Documents\Etudes\CS 2A\Transport Passagers\Air France\Git\Opti_AirFrance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b2d7a0977e2c88c/Bureau/ST air france/Opti_AirFrance/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5BE58D4-D8F1-4A62-A8C9-B0813F37C1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{D5BE58D4-D8F1-4A62-A8C9-B0813F37C1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD7A421A-6222-4F0B-88D7-F8E165031321}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSeating 2024" sheetId="1" r:id="rId1"/>
@@ -20,29 +20,19 @@
     <sheet name="30Oct" sheetId="6" r:id="rId5"/>
     <sheet name="5Nov" sheetId="8" r:id="rId6"/>
     <sheet name="7Nov" sheetId="9" r:id="rId7"/>
+    <sheet name="Imaginary" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="5">
   <si>
     <t>Numéro du groupe</t>
   </si>
@@ -77,6 +67,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -138,6 +129,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,13 +412,13 @@
       <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -449,7 +452,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -466,7 +469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -483,7 +486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -500,7 +503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -517,7 +520,7 @@
         <v>0.22569444444444445</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -534,7 +537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -551,7 +554,7 @@
         <v>0.13194444444444445</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -568,7 +571,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -585,7 +588,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -602,7 +605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -619,7 +622,7 @@
         <v>0.16319444444444445</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -636,7 +639,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -653,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -670,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -687,7 +690,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -704,7 +707,7 @@
         <v>6.5972222222222224E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -721,7 +724,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -738,7 +741,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -755,7 +758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -772,7 +775,7 @@
         <v>4.5138888888888888E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -789,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -806,7 +809,7 @@
         <v>4.5138888888888888E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -823,7 +826,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -840,7 +843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -857,7 +860,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -874,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -891,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -908,7 +911,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -925,7 +928,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -942,7 +945,7 @@
         <v>0.13194444444444445</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -959,7 +962,7 @@
         <v>6.5972222222222224E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -976,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -993,7 +996,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1010,7 +1013,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1044,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1061,7 +1064,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1078,7 +1081,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1095,7 +1098,7 @@
         <v>6.5972222222222224E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1112,7 +1115,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1129,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -1146,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -1180,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -1197,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -1231,7 +1234,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -1248,7 +1251,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -1265,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -1282,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -1299,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -1316,7 +1319,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -1333,7 +1336,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -1350,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -1367,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -1384,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -1401,7 +1404,7 @@
         <v>6.5972222222222224E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -1418,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -1435,7 +1438,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -1452,7 +1455,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -1469,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -1486,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -1503,7 +1506,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -1520,7 +1523,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -1537,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -1554,7 +1557,7 @@
         <v>0.13194444444444445</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -1571,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -1588,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -1605,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -1622,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -1639,7 +1642,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -1656,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -1673,7 +1676,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>4.5138888888888888E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -1707,7 +1710,7 @@
         <v>6.5972222222222224E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -1724,7 +1727,7 @@
         <v>6.5972222222222224E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -1741,7 +1744,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -1758,7 +1761,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -1775,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -1792,7 +1795,7 @@
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -1809,7 +1812,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -1826,7 +1829,7 @@
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -1843,7 +1846,7 @@
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -1860,7 +1863,7 @@
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -1877,7 +1880,7 @@
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -1894,7 +1897,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -1911,7 +1914,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -1979,7 +1982,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -1996,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -2013,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -2030,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -2047,7 +2050,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -2064,7 +2067,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -2081,7 +2084,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -2098,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -2115,7 +2118,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -2132,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -2149,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -2166,7 +2169,7 @@
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -2183,7 +2186,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -2200,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -2217,7 +2220,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -2234,7 +2237,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -2251,7 +2254,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -2268,7 +2271,7 @@
         <v>0.22569444444444445</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -2285,7 +2288,7 @@
         <v>0.22569444444444445</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -2302,7 +2305,7 @@
         <v>6.5972222222222224E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -2319,7 +2322,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113">
         <f>SUM(B2:B112)</f>
@@ -2335,7 +2338,7 @@
       </c>
       <c r="E113" s="4"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B114">
         <f>SUM(B113:D113)</f>
         <v>151</v>
@@ -2354,9 +2357,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2373,7 +2376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2390,7 +2393,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2407,7 +2410,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2424,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2441,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2458,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2475,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2492,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2509,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2526,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2543,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2560,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2577,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2611,7 +2614,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2628,7 +2631,7 @@
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2645,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2662,7 +2665,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2679,7 +2682,7 @@
         <v>0.37847222222222227</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2696,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2713,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2730,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2747,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2764,7 +2767,7 @@
         <v>4.5138888888888888E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>3.8194444444444441E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2798,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2815,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2832,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2849,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2866,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2883,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2900,7 +2903,7 @@
         <v>4.5138888888888888E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2917,7 +2920,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2934,7 +2937,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2951,7 +2954,7 @@
         <v>6.5972222222222224E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2968,7 +2971,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -2985,7 +2988,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3002,7 +3005,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3019,7 +3022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3036,7 +3039,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3053,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3070,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3087,7 +3090,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3104,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3121,7 +3124,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3138,7 +3141,7 @@
         <v>6.5972222222222224E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3155,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3172,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>51</v>
       </c>
@@ -3189,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>52</v>
       </c>
@@ -3206,7 +3209,7 @@
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>53</v>
       </c>
@@ -3223,7 +3226,7 @@
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>54</v>
       </c>
@@ -3240,7 +3243,7 @@
         <v>0.36805555555555558</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>55</v>
       </c>
@@ -3257,7 +3260,7 @@
         <v>0.36805555555555558</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>56</v>
       </c>
@@ -3274,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>57</v>
       </c>
@@ -3291,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>58</v>
       </c>
@@ -3308,7 +3311,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>59</v>
       </c>
@@ -3325,7 +3328,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>60</v>
       </c>
@@ -3342,7 +3345,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>61</v>
       </c>
@@ -3359,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>62</v>
       </c>
@@ -3376,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>63</v>
       </c>
@@ -3393,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>64</v>
       </c>
@@ -3410,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>65</v>
       </c>
@@ -3427,7 +3430,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>66</v>
       </c>
@@ -3444,7 +3447,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>67</v>
       </c>
@@ -3461,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>68</v>
       </c>
@@ -3478,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>69</v>
       </c>
@@ -3495,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>70</v>
       </c>
@@ -3512,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>71</v>
       </c>
@@ -3529,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>72</v>
       </c>
@@ -3546,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>73</v>
       </c>
@@ -3563,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>74</v>
       </c>
@@ -3580,7 +3583,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>75</v>
       </c>
@@ -3597,7 +3600,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>76</v>
       </c>
@@ -3614,7 +3617,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>77</v>
       </c>
@@ -3631,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>78</v>
       </c>
@@ -3648,7 +3651,7 @@
         <v>6.5972222222222224E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>79</v>
       </c>
@@ -3665,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>80</v>
       </c>
@@ -3682,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>81</v>
       </c>
@@ -3699,7 +3702,7 @@
         <v>3.8194444444444441E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>82</v>
       </c>
@@ -3716,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>83</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>84</v>
       </c>
@@ -3750,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>85</v>
       </c>
@@ -3767,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>86</v>
       </c>
@@ -3784,7 +3787,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>87</v>
       </c>
@@ -3801,7 +3804,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>88</v>
       </c>
@@ -3818,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>89</v>
       </c>
@@ -3835,7 +3838,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>90</v>
       </c>
@@ -3852,7 +3855,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>91</v>
       </c>
@@ -3869,7 +3872,7 @@
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>92</v>
       </c>
@@ -3886,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>93</v>
       </c>
@@ -3903,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>94</v>
       </c>
@@ -3920,7 +3923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>95</v>
       </c>
@@ -3937,7 +3940,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>96</v>
       </c>
@@ -3954,7 +3957,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>97</v>
       </c>
@@ -3971,7 +3974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>98</v>
       </c>
@@ -3988,7 +3991,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97">
         <f>SUM(B2:B96)</f>
         <v>54</v>
@@ -4002,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98">
         <f>SUM(B97:D97)</f>
         <v>116</v>
@@ -4017,16 +4020,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="11.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4043,7 +4046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4060,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4077,7 +4080,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4094,7 +4097,7 @@
         <v>3.8194444444444441E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4111,7 +4114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4128,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4145,7 +4148,7 @@
         <v>3.8194444444444441E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4162,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4179,7 +4182,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4196,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4213,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4230,7 +4233,7 @@
         <v>9.0277777777777776E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4247,7 +4250,7 @@
         <v>9.0277777777777776E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4264,7 +4267,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -4281,7 +4284,7 @@
         <v>3.8194444444444441E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -4298,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -4315,7 +4318,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -4332,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -4349,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -4366,7 +4369,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -4383,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -4400,7 +4403,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -4417,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -4434,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -4451,7 +4454,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -4468,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -4485,7 +4488,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -4502,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -4519,7 +4522,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -4536,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -4553,7 +4556,7 @@
         <v>6.5972222222222224E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -4570,7 +4573,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -4587,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -4604,7 +4607,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -4621,7 +4624,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -4638,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -4655,7 +4658,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -4672,7 +4675,7 @@
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -4689,7 +4692,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -4706,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -4723,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -4740,7 +4743,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -4757,7 +4760,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -4774,7 +4777,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -4791,7 +4794,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -4808,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -4825,7 +4828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -4842,7 +4845,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -4859,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -4876,7 +4879,7 @@
         <v>9.0277777777777776E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -4893,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -4910,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -4927,7 +4930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -4944,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -4961,7 +4964,7 @@
         <v>6.5972222222222224E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -4978,7 +4981,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -4995,7 +4998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -5012,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -5029,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -5046,7 +5049,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -5063,7 +5066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -5080,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -5097,7 +5100,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -5114,7 +5117,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -5131,7 +5134,7 @@
         <v>7.6388888888888895E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -5148,7 +5151,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -5165,7 +5168,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -5182,7 +5185,7 @@
         <v>4.5138888888888888E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -5199,7 +5202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -5216,7 +5219,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -5233,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -5250,7 +5253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -5267,7 +5270,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -5284,7 +5287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -5301,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -5318,7 +5321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -5335,7 +5338,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -5352,7 +5355,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -5369,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -5386,7 +5389,7 @@
         <v>5.9027777777777783E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -5403,7 +5406,7 @@
         <v>3.8194444444444441E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -5420,7 +5423,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -5437,7 +5440,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -5454,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -5471,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -5488,7 +5491,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -5505,7 +5508,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -5522,7 +5525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -5539,7 +5542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -5556,7 +5559,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -5573,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -5590,7 +5593,7 @@
         <v>3.8194444444444441E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -5607,7 +5610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -5624,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -5641,7 +5644,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -5658,7 +5661,7 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -5675,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -5692,7 +5695,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -5709,7 +5712,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -5726,7 +5729,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -5743,7 +5746,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -5760,7 +5763,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -5777,7 +5780,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -5794,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -5811,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -5828,7 +5831,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -5845,7 +5848,7 @@
         <v>0.10069444444444443</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -5862,7 +5865,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -5879,7 +5882,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -5896,7 +5899,7 @@
         <v>4.5138888888888888E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -5913,7 +5916,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -5930,7 +5933,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -5947,7 +5950,7 @@
         <v>7.9861111111111105E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -5964,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -5981,7 +5984,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -5998,7 +6001,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -6015,7 +6018,7 @@
         <v>0.22569444444444445</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -6032,7 +6035,7 @@
         <v>4.5138888888888888E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -6049,7 +6052,7 @@
         <v>6.5972222222222224E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -6066,7 +6069,7 @@
         <v>6.5972222222222224E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -6083,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -6100,7 +6103,7 @@
         <v>5.9027777777777783E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B123">
         <f>SUM(B2:B122)</f>
         <v>97</v>
@@ -6114,7 +6117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B124">
         <f>SUM(B123:D123)</f>
         <v>173</v>
@@ -6129,16 +6132,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="11.453125" style="4"/>
+    <col min="5" max="5" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6155,7 +6158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -6172,7 +6175,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -6189,7 +6192,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -6206,7 +6209,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -6223,7 +6226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -6240,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -6257,7 +6260,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -6274,7 +6277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -6291,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -6308,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -6325,7 +6328,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -6342,7 +6345,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -6359,7 +6362,7 @@
         <v>4.5138888888888888E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -6376,7 +6379,7 @@
         <v>6.5972222222222224E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -6393,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -6410,7 +6413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -6427,7 +6430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -6444,7 +6447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -6461,7 +6464,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -6478,7 +6481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -6495,7 +6498,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -6512,7 +6515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -6529,7 +6532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -6546,7 +6549,7 @@
         <v>0.30902777777777779</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -6563,7 +6566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -6580,7 +6583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -6597,7 +6600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -6614,7 +6617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -6631,7 +6634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -6648,7 +6651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -6665,7 +6668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -6682,7 +6685,7 @@
         <v>6.5972222222222224E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -6699,7 +6702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -6716,7 +6719,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -6733,7 +6736,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -6750,7 +6753,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -6767,7 +6770,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -6784,7 +6787,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -6801,7 +6804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -6818,7 +6821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -6835,7 +6838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -6852,7 +6855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -6869,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -6886,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -6903,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -6920,7 +6923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -6937,7 +6940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -6954,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -6971,7 +6974,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -6988,7 +6991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -7005,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -7022,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -7039,7 +7042,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -7056,7 +7059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -7073,7 +7076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -7090,7 +7093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -7107,7 +7110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -7124,7 +7127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -7141,7 +7144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -7158,7 +7161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -7175,7 +7178,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -7192,7 +7195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -7209,7 +7212,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -7226,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -7243,7 +7246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -7260,7 +7263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -7277,7 +7280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -7294,7 +7297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -7311,7 +7314,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -7328,7 +7331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -7345,7 +7348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -7362,7 +7365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -7379,7 +7382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -7396,7 +7399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -7413,7 +7416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -7430,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -7447,7 +7450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -7464,7 +7467,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -7481,7 +7484,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -7498,7 +7501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -7515,7 +7518,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -7532,7 +7535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -7549,7 +7552,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -7566,7 +7569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -7583,7 +7586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -7600,7 +7603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -7617,7 +7620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -7634,7 +7637,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -7651,7 +7654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -7668,7 +7671,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -7685,7 +7688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -7702,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B93">
         <f>SUM(B2:B92)</f>
         <v>82</v>
@@ -7716,7 +7719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B94">
         <f>SUM(B93:D93)</f>
         <v>164</v>
@@ -7731,13 +7734,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7754,7 +7757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -7772,7 +7775,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -7789,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -7806,7 +7809,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -7823,7 +7826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -7840,7 +7843,7 @@
         <v>7.9861111111111105E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -7857,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -7874,7 +7877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -7891,7 +7894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -7908,7 +7911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -7925,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -7942,7 +7945,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -7959,7 +7962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -7976,7 +7979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -7993,7 +7996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -8010,7 +8013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -8027,7 +8030,7 @@
         <v>0.17708333333333334</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -8044,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -8061,7 +8064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -8078,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -8095,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -8112,7 +8115,7 @@
         <v>7.9861111111111105E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -8129,7 +8132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -8146,7 +8149,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -8163,7 +8166,7 @@
         <v>7.9861111111111105E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -8180,7 +8183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -8197,7 +8200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -8214,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -8231,7 +8234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -8248,7 +8251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -8265,7 +8268,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -8282,7 +8285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -8299,7 +8302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -8316,7 +8319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -8333,7 +8336,7 @@
         <v>0.17708333333333334</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -8350,7 +8353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -8367,7 +8370,7 @@
         <v>7.9861111111111105E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -8384,7 +8387,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -8401,7 +8404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -8418,7 +8421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -8435,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -8452,7 +8455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -8469,7 +8472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -8486,7 +8489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -8503,7 +8506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -8520,7 +8523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -8537,7 +8540,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -8554,7 +8557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -8571,7 +8574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -8588,7 +8591,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -8605,7 +8608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -8622,7 +8625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -8639,7 +8642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -8656,7 +8659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -8673,7 +8676,7 @@
         <v>7.9861111111111105E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -8690,7 +8693,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -8707,7 +8710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -8724,7 +8727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -8741,7 +8744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -8758,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -8775,7 +8778,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -8792,7 +8795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -8809,7 +8812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -8826,7 +8829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -8843,7 +8846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -8860,7 +8863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -8877,7 +8880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -8894,7 +8897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -8911,7 +8914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -8928,7 +8931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -8945,7 +8948,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -8962,7 +8965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -8979,7 +8982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -8996,7 +8999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -9013,7 +9016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -9030,7 +9033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -9047,7 +9050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -9064,7 +9067,7 @@
         <v>7.9861111111111105E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -9081,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -9098,7 +9101,7 @@
         <v>7.9861111111111105E-2</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81">
         <f>SUM(B2:B80)</f>
         <v>60</v>
@@ -9113,7 +9116,7 @@
       </c>
       <c r="E81" s="4"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82">
         <f>SUM(B81:D81)</f>
         <v>115</v>
@@ -9133,9 +9136,9 @@
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9152,7 +9155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -9169,7 +9172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -9186,7 +9189,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -9203,7 +9206,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -9220,7 +9223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -9237,7 +9240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -9254,7 +9257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -9271,7 +9274,7 @@
         <v>5.9027777777777783E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -9288,7 +9291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -9305,7 +9308,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -9322,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -9339,7 +9342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -9356,7 +9359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -9373,7 +9376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -9390,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -9407,7 +9410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -9424,7 +9427,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -9441,7 +9444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -9458,7 +9461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -9475,7 +9478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -9492,7 +9495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -9509,7 +9512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -9526,7 +9529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -9543,7 +9546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -9560,7 +9563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -9577,7 +9580,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -9594,7 +9597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -9611,7 +9614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -9628,7 +9631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -9645,7 +9648,7 @@
         <v>5.9027777777777783E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -9662,7 +9665,7 @@
         <v>5.9027777777777783E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -9679,7 +9682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -9696,7 +9699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -9713,7 +9716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -9730,7 +9733,7 @@
         <v>5.9027777777777783E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -9747,7 +9750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -9764,7 +9767,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -9781,7 +9784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -9798,7 +9801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -9815,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -9832,7 +9835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -9849,7 +9852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -9866,7 +9869,7 @@
         <v>0.11458333333333333</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -9883,7 +9886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -9900,7 +9903,7 @@
         <v>5.9027777777777783E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -9917,7 +9920,7 @@
         <v>5.9027777777777783E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -9934,7 +9937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -9951,7 +9954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -9968,7 +9971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -9985,7 +9988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -10002,7 +10005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -10019,7 +10022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -10036,7 +10039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -10053,7 +10056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B55">
         <f>SUM(B2:B54)</f>
         <v>45</v>
@@ -10067,7 +10070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B56">
         <f>SUM(B55:D55)</f>
         <v>97</v>
@@ -10082,13 +10085,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10105,7 +10108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -10122,7 +10125,7 @@
         <v>3.8194444444444441E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -10139,7 +10142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -10156,7 +10159,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -10173,7 +10176,7 @@
         <v>0.13541666666666666</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -10190,7 +10193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -10207,7 +10210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -10224,7 +10227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -10241,7 +10244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -10258,7 +10261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -10275,7 +10278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -10292,7 +10295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -10309,7 +10312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -10326,7 +10329,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -10343,7 +10346,7 @@
         <v>3.8194444444444441E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -10360,7 +10363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -10377,7 +10380,7 @@
         <v>3.8194444444444441E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -10394,7 +10397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -10411,7 +10414,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -10428,7 +10431,7 @@
         <v>0.13541666666666666</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -10445,7 +10448,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -10462,7 +10465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -10479,7 +10482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -10496,7 +10499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -10513,7 +10516,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -10530,7 +10533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -10547,7 +10550,7 @@
         <v>3.8194444444444441E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -10564,7 +10567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -10581,7 +10584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -10598,7 +10601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -10615,7 +10618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -10632,7 +10635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -10649,7 +10652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -10666,7 +10669,7 @@
         <v>3.8194444444444441E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -10683,7 +10686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -10700,7 +10703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -10717,7 +10720,7 @@
         <v>3.8194444444444441E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -10734,7 +10737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -10751,7 +10754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -10768,7 +10771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -10785,7 +10788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -10802,7 +10805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -10819,7 +10822,7 @@
         <v>3.8194444444444441E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -10836,7 +10839,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -10853,7 +10856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -10870,7 +10873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -10887,7 +10890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -10904,7 +10907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -10921,7 +10924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -10938,7 +10941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -10955,7 +10958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -10972,7 +10975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -10989,7 +10992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -11006,7 +11009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -11023,7 +11026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -11040,7 +11043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -11057,7 +11060,7 @@
         <v>0.13541666666666666</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -11074,7 +11077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -11091,7 +11094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -11108,7 +11111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -11125,7 +11128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -11142,7 +11145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -11159,7 +11162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -11176,7 +11179,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -11193,7 +11196,7 @@
         <v>3.8194444444444441E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -11210,7 +11213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -11227,7 +11230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -11244,7 +11247,7 @@
         <v>0.13541666666666666</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -11261,7 +11264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -11278,7 +11281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -11295,7 +11298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -11312,7 +11315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -11329,7 +11332,7 @@
         <v>3.8194444444444441E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -11346,7 +11349,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -11363,7 +11366,7 @@
         <v>0.13541666666666666</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -11380,7 +11383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -11397,7 +11400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -11414,7 +11417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -11431,7 +11434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -11448,7 +11451,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -11465,7 +11468,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -11482,7 +11485,7 @@
         <v>3.8194444444444441E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -11499,7 +11502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -11516,7 +11519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -11533,7 +11536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -11550,7 +11553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -11567,7 +11570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -11584,7 +11587,7 @@
         <v>0.13541666666666666</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -11601,7 +11604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -11618,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B91">
         <f>SUM(B2:B90)</f>
         <v>82</v>
@@ -11632,10 +11635,1556 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B92">
         <f>SUM(B91:D91)</f>
         <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B23673-0DEE-43EB-967F-FE36C319352F}">
+  <dimension ref="A1:E90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3.8194444444444448E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.13541666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3.8194444444444441E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3.8194444444444441E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.13541666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" s="4">
+        <v>3.8194444444444441E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>3.8194444444444441E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>3.8194444444444441E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>3.8194444444444441E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0.13541666666666666</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>3.8194444444444441E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0.13541666666666666</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <v>3.8194444444444441E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0.13541666666666666</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" s="4">
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" s="4">
+        <v>3.8194444444444441E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0.13541666666666666</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
